--- a/Desafio-HROADS/Modelagem/desafio-HROADS-fisico xlsx.xlsx
+++ b/Desafio-HROADS/Modelagem/desafio-HROADS-fisico xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Desafio-HROADS\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\sprint-1_2-semestre\Desafio-HROADS\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66D9B5C-DB51-49B1-83F1-67BF83731974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F508DE-57D8-41A0-98E8-B2463C7CD442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C562FDCC-4335-4979-89AD-E83D669E784D}"/>
   </bookViews>
@@ -399,9 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,9 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,9 +440,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -481,9 +472,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,9 +498,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,6 +530,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,369 +867,369 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="59"/>
+      <c r="D1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>1</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>1</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>100</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <v>80</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>44417</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="26">
         <v>43483</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <v>2</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="28">
         <v>70</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="28">
         <v>100</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="29">
         <v>44417</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="30">
         <v>42446</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>3</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="32">
         <v>75</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <v>60</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="33">
         <v>44417</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="34">
         <v>43177</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="E19" s="51" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="E19" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
         <v>1</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="39">
         <v>1</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="50">
         <v>1</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="51">
         <v>1</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="52">
         <v>1</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="41">
         <v>2</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="42">
         <v>2</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="53">
         <v>2</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="54">
         <v>1</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="55">
         <v>2</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
         <v>3</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="45">
         <v>3</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="53">
         <v>3</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="54">
         <v>2</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="55">
         <v>2</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="58">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="53">
         <v>4</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="54">
         <v>3</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="55">
         <v>1</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="58">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="53">
         <v>5</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="54">
         <v>4</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="55">
         <v>3</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="58">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="53">
         <v>6</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="54">
         <v>4</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="55">
         <v>2</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="61">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="56">
         <v>7</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="57">
         <v>6</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="58">
         <v>3</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
   </sheetData>

--- a/Desafio-HROADS/Modelagem/desafio-HROADS-fisico xlsx.xlsx
+++ b/Desafio-HROADS/Modelagem/desafio-HROADS-fisico xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Desafio-HROADS\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\sprint-1_2-semestre\Desafio-HROADS\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66D9B5C-DB51-49B1-83F1-67BF83731974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E9F32-FAD8-418A-BB5D-787140BE13CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C562FDCC-4335-4979-89AD-E83D669E784D}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>idHabilidade</t>
   </si>
   <si>
-    <t>nomehabilidade</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lança Mortal </t>
   </si>
   <si>
@@ -130,13 +127,16 @@
   </si>
   <si>
     <t>idCH</t>
+  </si>
+  <si>
+    <t>nomeHabilidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -394,14 +402,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,9 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,9 +448,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -481,9 +480,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,9 +506,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,6 +540,22 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,372 +873,373 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="59"/>
+      <c r="D1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>1</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>1</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>100</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <v>80</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>44417</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="26">
         <v>43483</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <v>2</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="28">
         <v>70</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="28">
         <v>100</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="29">
         <v>44417</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="30">
         <v>42446</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>3</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="32">
         <v>75</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <v>60</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="33">
         <v>44417</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="34">
         <v>43177</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="E19" s="51" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="E19" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="F20" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="40" t="s">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>1</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="53" t="s">
+      <c r="E21" s="50">
+        <v>1</v>
+      </c>
+      <c r="F21" s="51">
+        <v>1</v>
+      </c>
+      <c r="G21" s="52">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="41">
         <v>2</v>
       </c>
-      <c r="G20" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="B22" s="42">
+        <v>2</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="53">
+        <v>2</v>
+      </c>
+      <c r="F22" s="54">
         <v>1</v>
       </c>
-      <c r="B21" s="43">
+      <c r="G22" s="55">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>3</v>
+      </c>
+      <c r="B23" s="45">
+        <v>3</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="53">
+        <v>3</v>
+      </c>
+      <c r="F23" s="54">
+        <v>2</v>
+      </c>
+      <c r="G23" s="55">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="64"/>
+      <c r="E24" s="53">
+        <v>4</v>
+      </c>
+      <c r="F24" s="54">
+        <v>3</v>
+      </c>
+      <c r="G24" s="55">
         <v>1</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="55">
-        <v>1</v>
-      </c>
-      <c r="F21" s="56">
-        <v>1</v>
-      </c>
-      <c r="G21" s="57">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="53">
+        <v>5</v>
+      </c>
+      <c r="F25" s="54">
+        <v>4</v>
+      </c>
+      <c r="G25" s="55">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="53">
+        <v>6</v>
+      </c>
+      <c r="F26" s="54">
+        <v>4</v>
+      </c>
+      <c r="G26" s="55">
         <v>2</v>
       </c>
-      <c r="B22" s="46">
-        <v>2</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="58">
-        <v>2</v>
-      </c>
-      <c r="F22" s="59">
-        <v>1</v>
-      </c>
-      <c r="G22" s="60">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="56">
+        <v>7</v>
+      </c>
+      <c r="F27" s="57">
+        <v>6</v>
+      </c>
+      <c r="G27" s="58">
         <v>3</v>
       </c>
-      <c r="B23" s="49">
-        <v>3</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="58">
-        <v>3</v>
-      </c>
-      <c r="F23" s="59">
-        <v>2</v>
-      </c>
-      <c r="G23" s="60">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="58">
-        <v>4</v>
-      </c>
-      <c r="F24" s="59">
-        <v>3</v>
-      </c>
-      <c r="G24" s="60">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="58">
-        <v>5</v>
-      </c>
-      <c r="F25" s="59">
-        <v>4</v>
-      </c>
-      <c r="G25" s="60">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="58">
-        <v>6</v>
-      </c>
-      <c r="F26" s="59">
-        <v>4</v>
-      </c>
-      <c r="G26" s="60">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="61">
-        <v>7</v>
-      </c>
-      <c r="F27" s="62">
-        <v>6</v>
-      </c>
-      <c r="G27" s="63">
-        <v>3</v>
-      </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -1241,6 +1251,6 @@
     <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>